--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pmch-Mchr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pmch-Mchr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1065293333333333</v>
+        <v>0.2423523333333333</v>
       </c>
       <c r="H2">
-        <v>0.319588</v>
+        <v>0.727057</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7762337358684754</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7762337358684754</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,7 +552,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3559683333333333</v>
+        <v>0.3559683333333334</v>
       </c>
       <c r="N2">
         <v>1.067905</v>
@@ -561,16 +564,78 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.03792106923777777</v>
+        <v>0.08626975617611111</v>
       </c>
       <c r="R2">
-        <v>0.3412896231399999</v>
+        <v>0.776427805585</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.7762337358684754</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.7762337358684754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.06986333333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.20959</v>
+      </c>
+      <c r="I3">
+        <v>0.2237662641315245</v>
+      </c>
+      <c r="J3">
+        <v>0.2237662641315245</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.3559683333333334</v>
+      </c>
+      <c r="N3">
+        <v>1.067905</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.02486913432777778</v>
+      </c>
+      <c r="R3">
+        <v>0.22382220895</v>
+      </c>
+      <c r="S3">
+        <v>0.2237662641315245</v>
+      </c>
+      <c r="T3">
+        <v>0.2237662641315245</v>
       </c>
     </row>
   </sheetData>
